--- a/Resource/excel/S-属性定义-基础属性-(框架维护,请勿修改).xlsx
+++ b/Resource/excel/S-属性定义-基础属性-(框架维护,请勿修改).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Frame\trunk\_resource\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KFrame\Project\Fighter\trunk\Resource\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="R4" authorId="0" shapeId="0">
+    <comment ref="S4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="139">
   <si>
     <t>LuaFile(string)</t>
   </si>
@@ -201,9 +201,6 @@
   </si>
   <si>
     <t>MaxValue(string)</t>
-  </si>
-  <si>
-    <t>LogicValue(string)</t>
   </si>
   <si>
     <t>Show(int)</t>
@@ -574,6 +571,18 @@
   </si>
   <si>
     <t>#frameclass</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组集合最大容量</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Capacity(string)</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RunParam(string)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1193,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI38"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1212,32 +1221,32 @@
     <col min="10" max="11" width="19.375" style="9" customWidth="1"/>
     <col min="12" max="12" width="26" style="9" customWidth="1"/>
     <col min="13" max="13" width="23.75" style="9" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="9" customWidth="1"/>
-    <col min="16" max="17" width="12.875" style="9" customWidth="1"/>
-    <col min="18" max="18" width="17.125" style="9" customWidth="1"/>
-    <col min="19" max="19" width="11" style="9" customWidth="1"/>
-    <col min="20" max="20" width="12.875" style="9" customWidth="1"/>
-    <col min="21" max="21" width="15" style="9" customWidth="1"/>
-    <col min="22" max="22" width="11" style="9" customWidth="1"/>
-    <col min="23" max="23" width="13.75" style="9" customWidth="1"/>
-    <col min="24" max="25" width="17.125" style="9" customWidth="1"/>
-    <col min="26" max="26" width="12.625" style="9" customWidth="1"/>
-    <col min="27" max="27" width="14.875" style="9" customWidth="1"/>
-    <col min="28" max="29" width="11.5" style="9" customWidth="1"/>
-    <col min="30" max="30" width="10.875" style="9" customWidth="1"/>
-    <col min="31" max="31" width="9.375" style="9" customWidth="1"/>
-    <col min="32" max="32" width="17.125" style="9" customWidth="1"/>
-    <col min="33" max="33" width="21.5" style="9" customWidth="1"/>
-    <col min="34" max="34" width="24.875" style="9" customWidth="1"/>
-    <col min="35" max="35" width="28.75" style="9" customWidth="1"/>
-    <col min="36" max="16384" width="9" style="9"/>
+    <col min="14" max="15" width="18.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.125" style="9" customWidth="1"/>
+    <col min="17" max="18" width="12.875" style="9" customWidth="1"/>
+    <col min="19" max="19" width="17.125" style="9" customWidth="1"/>
+    <col min="20" max="20" width="11" style="9" customWidth="1"/>
+    <col min="21" max="21" width="12.875" style="9" customWidth="1"/>
+    <col min="22" max="22" width="15" style="9" customWidth="1"/>
+    <col min="23" max="23" width="11" style="9" customWidth="1"/>
+    <col min="24" max="24" width="13.75" style="9" customWidth="1"/>
+    <col min="25" max="26" width="17.125" style="9" customWidth="1"/>
+    <col min="27" max="27" width="12.625" style="9" customWidth="1"/>
+    <col min="28" max="28" width="14.875" style="9" customWidth="1"/>
+    <col min="29" max="30" width="11.5" style="9" customWidth="1"/>
+    <col min="31" max="31" width="10.875" style="9" customWidth="1"/>
+    <col min="32" max="32" width="9.375" style="9" customWidth="1"/>
+    <col min="33" max="33" width="17.125" style="9" customWidth="1"/>
+    <col min="34" max="34" width="21.5" style="9" customWidth="1"/>
+    <col min="35" max="35" width="24.875" style="9" customWidth="1"/>
+    <col min="36" max="36" width="28.75" style="9" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11"/>
       <c r="B1" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -1271,8 +1280,9 @@
       <c r="AF1" s="11"/>
       <c r="AG1" s="11"/>
       <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
     </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="s">
         <v>1</v>
@@ -1281,7 +1291,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>3</v>
@@ -1296,7 +1306,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>7</v>
@@ -1311,73 +1321,76 @@
         <v>10</v>
       </c>
       <c r="N2" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="O2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="10" t="s">
-        <v>111</v>
-      </c>
       <c r="P2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="10" t="s">
+      <c r="R2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="S2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="S2" s="10" t="s">
+      <c r="T2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="T2" s="10" t="s">
+      <c r="U2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="U2" s="10" t="s">
+      <c r="V2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="W2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="X2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="Y2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="Y2" s="10" t="s">
+      <c r="Z2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="10" t="s">
-        <v>134</v>
-      </c>
       <c r="AA2" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="AB2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="AB2" s="10" t="s">
+      <c r="AC2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="AC2" s="10" t="s">
+      <c r="AD2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AD2" s="10" t="s">
+      <c r="AE2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AE2" s="10" t="s">
+      <c r="AF2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AF2" s="10" t="s">
+      <c r="AG2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AH2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="AH2" s="10" t="s">
+      <c r="AI2" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:36" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12">
         <v>0</v>
       </c>
@@ -1427,13 +1440,13 @@
         <v>3</v>
       </c>
       <c r="Q3" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R3" s="12">
         <v>1</v>
       </c>
       <c r="S3" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3" s="12">
         <v>3</v>
@@ -1445,7 +1458,7 @@
         <v>3</v>
       </c>
       <c r="W3" s="12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X3" s="12">
         <v>1</v>
@@ -1454,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="Z3" s="12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA3" s="12">
         <v>3</v>
@@ -1480,22 +1493,25 @@
       <c r="AH3" s="12">
         <v>3</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="12">
         <v>3</v>
       </c>
+      <c r="AJ3" s="3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:36" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E4" s="13" t="s">
         <v>30</v>
@@ -1525,91 +1541,94 @@
         <v>38</v>
       </c>
       <c r="N4" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="P4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="13" t="s">
+      <c r="Q4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="13" t="s">
+      <c r="R4" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Q4" s="13" t="s">
+      <c r="S4" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="R4" s="13" t="s">
+      <c r="T4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="S4" s="13" t="s">
+      <c r="U4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="13" t="s">
+      <c r="V4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="V4" s="13" t="s">
+      <c r="X4" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="W4" s="13" t="s">
+      <c r="Y4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="X4" s="13" t="s">
+      <c r="Z4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="Y4" s="13" t="s">
+      <c r="AA4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="Z4" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="AA4" s="13" t="s">
+      <c r="AC4" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="AB4" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC4" s="13" t="s">
+      <c r="AE4" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="AD4" s="13" t="s">
+      <c r="AF4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="AE4" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="13" t="s">
+      <c r="AH4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="AG4" s="13" t="s">
+      <c r="AI4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="AH4" s="13" t="s">
+      <c r="AJ4" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="AI4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="C5" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>63</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -1618,18 +1637,16 @@
       <c r="L5" s="14"/>
       <c r="M5" s="14"/>
       <c r="N5" s="14"/>
-      <c r="O5" s="14">
-        <v>1</v>
-      </c>
+      <c r="O5" s="14"/>
       <c r="P5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="14">
+        <v>0</v>
+      </c>
+      <c r="R5" s="14">
         <v>60000</v>
       </c>
-      <c r="R5" s="14">
-        <v>1</v>
-      </c>
       <c r="S5" s="14">
         <v>1</v>
       </c>
@@ -1637,10 +1654,10 @@
         <v>1</v>
       </c>
       <c r="U5" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="14">
         <v>1</v>
@@ -1666,24 +1683,27 @@
       <c r="AD5" s="14">
         <v>1</v>
       </c>
-      <c r="AE5" s="14"/>
+      <c r="AE5" s="14">
+        <v>1</v>
+      </c>
       <c r="AF5" s="14"/>
       <c r="AG5" s="14"/>
       <c r="AH5" s="14"/>
+      <c r="AI5" s="14"/>
     </row>
-    <row r="6" spans="1:35" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:36" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -1694,9 +1714,7 @@
       <c r="L6" s="15"/>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
-      <c r="O6" s="15">
-        <v>0</v>
-      </c>
+      <c r="O6" s="15"/>
       <c r="P6" s="15">
         <v>0</v>
       </c>
@@ -1707,19 +1725,19 @@
         <v>0</v>
       </c>
       <c r="S6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6" s="15">
         <v>1</v>
       </c>
       <c r="U6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="15">
         <v>0</v>
@@ -1742,30 +1760,33 @@
       <c r="AD6" s="15">
         <v>0</v>
       </c>
-      <c r="AE6" s="15"/>
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
       <c r="AF6" s="15"/>
       <c r="AG6" s="15"/>
       <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
     </row>
-    <row r="7" spans="1:35" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:36" s="6" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="G7" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>61</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -1774,9 +1795,7 @@
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
       <c r="N7" s="15"/>
-      <c r="O7" s="15">
-        <v>0</v>
-      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="15">
         <v>0</v>
       </c>
@@ -1787,25 +1806,25 @@
         <v>0</v>
       </c>
       <c r="S7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="15">
         <v>1</v>
       </c>
       <c r="U7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" s="15">
         <v>0</v>
       </c>
       <c r="Y7" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="15">
         <v>1</v>
@@ -1822,24 +1841,27 @@
       <c r="AD7" s="15">
         <v>1</v>
       </c>
-      <c r="AE7" s="15"/>
+      <c r="AE7" s="15">
+        <v>1</v>
+      </c>
       <c r="AF7" s="15"/>
       <c r="AG7" s="15"/>
       <c r="AH7" s="15"/>
+      <c r="AI7" s="15"/>
     </row>
-    <row r="8" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="D8" s="15"/>
       <c r="E8" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -1850,9 +1872,7 @@
       <c r="L8" s="15"/>
       <c r="M8" s="15"/>
       <c r="N8" s="15"/>
-      <c r="O8" s="15">
-        <v>0</v>
-      </c>
+      <c r="O8" s="15"/>
       <c r="P8" s="15">
         <v>0</v>
       </c>
@@ -1863,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="S8" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" s="15">
         <v>0</v>
@@ -1898,24 +1918,27 @@
       <c r="AD8" s="15">
         <v>0</v>
       </c>
-      <c r="AE8" s="15"/>
+      <c r="AE8" s="15">
+        <v>0</v>
+      </c>
       <c r="AF8" s="15"/>
       <c r="AG8" s="15"/>
       <c r="AH8" s="15"/>
+      <c r="AI8" s="15"/>
     </row>
-    <row r="9" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>72</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>73</v>
       </c>
       <c r="D9" s="15"/>
       <c r="E9" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -1926,9 +1949,7 @@
       <c r="L9" s="15"/>
       <c r="M9" s="15"/>
       <c r="N9" s="15"/>
-      <c r="O9" s="15">
-        <v>0</v>
-      </c>
+      <c r="O9" s="15"/>
       <c r="P9" s="15">
         <v>0</v>
       </c>
@@ -1939,10 +1960,10 @@
         <v>0</v>
       </c>
       <c r="S9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" s="15">
         <v>0</v>
@@ -1974,24 +1995,27 @@
       <c r="AD9" s="15">
         <v>0</v>
       </c>
-      <c r="AE9" s="15"/>
+      <c r="AE9" s="15">
+        <v>0</v>
+      </c>
       <c r="AF9" s="15"/>
       <c r="AG9" s="15"/>
       <c r="AH9" s="15"/>
+      <c r="AI9" s="15"/>
     </row>
-    <row r="10" spans="1:35" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="15" t="s">
         <v>74</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>75</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
@@ -2002,9 +2026,7 @@
       <c r="L10" s="15"/>
       <c r="M10" s="15"/>
       <c r="N10" s="15"/>
-      <c r="O10" s="15">
-        <v>0</v>
-      </c>
+      <c r="O10" s="15"/>
       <c r="P10" s="15">
         <v>0</v>
       </c>
@@ -2015,10 +2037,10 @@
         <v>0</v>
       </c>
       <c r="S10" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U10" s="15">
         <v>0</v>
@@ -2050,24 +2072,27 @@
       <c r="AD10" s="15">
         <v>0</v>
       </c>
-      <c r="AE10" s="15"/>
+      <c r="AE10" s="15">
+        <v>0</v>
+      </c>
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
     </row>
-    <row r="11" spans="1:35" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>78</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -2078,9 +2103,7 @@
       <c r="L11" s="15"/>
       <c r="M11" s="15"/>
       <c r="N11" s="15"/>
-      <c r="O11" s="15">
-        <v>0</v>
-      </c>
+      <c r="O11" s="15"/>
       <c r="P11" s="15">
         <v>0</v>
       </c>
@@ -2126,24 +2149,27 @@
       <c r="AD11" s="15">
         <v>0</v>
       </c>
-      <c r="AE11" s="15"/>
+      <c r="AE11" s="15">
+        <v>0</v>
+      </c>
       <c r="AF11" s="15"/>
       <c r="AG11" s="15"/>
       <c r="AH11" s="15"/>
+      <c r="AI11" s="15"/>
     </row>
-    <row r="12" spans="1:35" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:36" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="D12" s="15"/>
       <c r="E12" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15"/>
@@ -2154,9 +2180,7 @@
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="15"/>
-      <c r="O12" s="15">
-        <v>0</v>
-      </c>
+      <c r="O12" s="15"/>
       <c r="P12" s="15">
         <v>0</v>
       </c>
@@ -2167,10 +2191,10 @@
         <v>0</v>
       </c>
       <c r="S12" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12" s="15">
         <v>0</v>
@@ -2202,24 +2226,27 @@
       <c r="AD12" s="15">
         <v>0</v>
       </c>
-      <c r="AE12" s="15"/>
+      <c r="AE12" s="15">
+        <v>0</v>
+      </c>
       <c r="AF12" s="15"/>
       <c r="AG12" s="15"/>
       <c r="AH12" s="15"/>
+      <c r="AI12" s="15"/>
     </row>
-    <row r="13" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:36" s="7" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="15"/>
       <c r="E13" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
@@ -2230,9 +2257,7 @@
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="15"/>
-      <c r="O13" s="15">
-        <v>0</v>
-      </c>
+      <c r="O13" s="15"/>
       <c r="P13" s="15">
         <v>0</v>
       </c>
@@ -2243,10 +2268,10 @@
         <v>0</v>
       </c>
       <c r="S13" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T13" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" s="15">
         <v>0</v>
@@ -2278,24 +2303,27 @@
       <c r="AD13" s="15">
         <v>0</v>
       </c>
-      <c r="AE13" s="15"/>
+      <c r="AE13" s="15">
+        <v>0</v>
+      </c>
       <c r="AF13" s="15"/>
       <c r="AG13" s="15"/>
       <c r="AH13" s="15"/>
+      <c r="AI13" s="15"/>
     </row>
-    <row r="14" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="15"/>
       <c r="E14" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -2306,9 +2334,7 @@
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
       <c r="N14" s="15"/>
-      <c r="O14" s="15">
-        <v>0</v>
-      </c>
+      <c r="O14" s="15"/>
       <c r="P14" s="15">
         <v>0</v>
       </c>
@@ -2319,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="S14" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14" s="15">
         <v>0</v>
@@ -2354,24 +2380,27 @@
       <c r="AD14" s="15">
         <v>0</v>
       </c>
-      <c r="AE14" s="15"/>
+      <c r="AE14" s="15">
+        <v>0</v>
+      </c>
       <c r="AF14" s="15"/>
       <c r="AG14" s="15"/>
       <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
     </row>
-    <row r="15" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="15" t="s">
         <v>81</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>82</v>
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -2382,9 +2411,7 @@
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
       <c r="N15" s="15"/>
-      <c r="O15" s="15">
-        <v>0</v>
-      </c>
+      <c r="O15" s="15"/>
       <c r="P15" s="15">
         <v>0</v>
       </c>
@@ -2395,10 +2422,10 @@
         <v>0</v>
       </c>
       <c r="S15" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" s="15">
         <v>0</v>
@@ -2430,45 +2457,46 @@
       <c r="AD15" s="15">
         <v>0</v>
       </c>
-      <c r="AE15" s="15"/>
+      <c r="AE15" s="15">
+        <v>0</v>
+      </c>
       <c r="AF15" s="15"/>
       <c r="AG15" s="15"/>
       <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
     </row>
-    <row r="16" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>85</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>86</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="G16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="15" t="s">
         <v>88</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>89</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="15"/>
-      <c r="O16" s="15">
-        <v>0</v>
-      </c>
+      <c r="O16" s="15"/>
       <c r="P16" s="15">
         <v>0</v>
       </c>
@@ -2479,10 +2507,10 @@
         <v>0</v>
       </c>
       <c r="S16" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="15">
         <v>0</v>
@@ -2514,45 +2542,46 @@
       <c r="AD16" s="15">
         <v>0</v>
       </c>
-      <c r="AE16" s="15"/>
+      <c r="AE16" s="15">
+        <v>0</v>
+      </c>
       <c r="AF16" s="15"/>
       <c r="AG16" s="15"/>
       <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
     </row>
-    <row r="17" spans="1:34" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17" s="15"/>
       <c r="E17" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
       <c r="N17" s="15"/>
-      <c r="O17" s="15">
-        <v>0</v>
-      </c>
+      <c r="O17" s="15"/>
       <c r="P17" s="15">
         <v>0</v>
       </c>
@@ -2563,10 +2592,10 @@
         <v>0</v>
       </c>
       <c r="S17" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17" s="15">
         <v>0</v>
@@ -2598,41 +2627,42 @@
       <c r="AD17" s="15">
         <v>0</v>
       </c>
-      <c r="AE17" s="15"/>
+      <c r="AE17" s="15">
+        <v>0</v>
+      </c>
       <c r="AF17" s="15"/>
       <c r="AG17" s="15"/>
       <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
     </row>
-    <row r="18" spans="1:34" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="15">
-        <v>1</v>
-      </c>
+      <c r="O18" s="15"/>
       <c r="P18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="15">
         <v>0</v>
@@ -2641,13 +2671,13 @@
         <v>0</v>
       </c>
       <c r="S18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" s="15">
         <v>1</v>
       </c>
       <c r="U18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="15">
         <v>0</v>
@@ -2659,10 +2689,10 @@
         <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18" s="15">
         <v>0</v>
@@ -2676,41 +2706,42 @@
       <c r="AD18" s="15">
         <v>0</v>
       </c>
-      <c r="AE18" s="15"/>
+      <c r="AE18" s="15">
+        <v>0</v>
+      </c>
       <c r="AF18" s="15"/>
       <c r="AG18" s="15"/>
       <c r="AH18" s="15"/>
+      <c r="AI18" s="15"/>
     </row>
-    <row r="19" spans="1:34" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="15" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>91</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
-      <c r="O19" s="15">
-        <v>1</v>
-      </c>
+      <c r="O19" s="15"/>
       <c r="P19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="15">
         <v>0</v>
@@ -2719,13 +2750,13 @@
         <v>0</v>
       </c>
       <c r="S19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19" s="15">
         <v>1</v>
       </c>
       <c r="U19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" s="15">
         <v>0</v>
@@ -2737,10 +2768,10 @@
         <v>0</v>
       </c>
       <c r="Y19" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19" s="15">
         <v>0</v>
@@ -2754,24 +2785,27 @@
       <c r="AD19" s="15">
         <v>0</v>
       </c>
-      <c r="AE19" s="15"/>
+      <c r="AE19" s="15">
+        <v>0</v>
+      </c>
       <c r="AF19" s="15"/>
       <c r="AG19" s="15"/>
       <c r="AH19" s="15"/>
+      <c r="AI19" s="15"/>
     </row>
-    <row r="20" spans="1:34" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
@@ -2782,9 +2816,7 @@
       <c r="L20" s="16"/>
       <c r="M20" s="16"/>
       <c r="N20" s="16"/>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
+      <c r="O20" s="16"/>
       <c r="P20" s="16">
         <v>0</v>
       </c>
@@ -2795,16 +2827,16 @@
         <v>0</v>
       </c>
       <c r="S20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" s="16">
         <v>1</v>
       </c>
       <c r="U20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="16">
         <v>1</v>
@@ -2830,24 +2862,27 @@
       <c r="AD20" s="16">
         <v>1</v>
       </c>
-      <c r="AE20" s="16"/>
+      <c r="AE20" s="16">
+        <v>1</v>
+      </c>
       <c r="AF20" s="16"/>
       <c r="AG20" s="16"/>
       <c r="AH20" s="16"/>
+      <c r="AI20" s="16"/>
     </row>
-    <row r="21" spans="1:34" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>97</v>
       </c>
       <c r="D21" s="16"/>
       <c r="E21" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="16"/>
@@ -2857,12 +2892,10 @@
       <c r="K21" s="16"/>
       <c r="L21" s="16"/>
       <c r="M21" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N21" s="16"/>
-      <c r="O21" s="16">
-        <v>0</v>
-      </c>
+      <c r="O21" s="16"/>
       <c r="P21" s="16">
         <v>0</v>
       </c>
@@ -2873,16 +2906,16 @@
         <v>0</v>
       </c>
       <c r="S21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="16">
         <v>1</v>
       </c>
       <c r="U21" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" s="16">
         <v>1</v>
@@ -2908,24 +2941,27 @@
       <c r="AD21" s="16">
         <v>1</v>
       </c>
-      <c r="AE21" s="16"/>
+      <c r="AE21" s="16">
+        <v>1</v>
+      </c>
       <c r="AF21" s="16"/>
       <c r="AG21" s="16"/>
       <c r="AH21" s="16"/>
+      <c r="AI21" s="16"/>
     </row>
-    <row r="22" spans="1:34" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" s="16" t="s">
         <v>99</v>
-      </c>
-      <c r="B22" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>100</v>
       </c>
       <c r="D22" s="16"/>
       <c r="E22" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
@@ -2936,9 +2972,7 @@
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
       <c r="N22" s="16"/>
-      <c r="O22" s="16">
-        <v>0</v>
-      </c>
+      <c r="O22" s="16"/>
       <c r="P22" s="16">
         <v>0</v>
       </c>
@@ -2949,16 +2983,16 @@
         <v>0</v>
       </c>
       <c r="S22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22" s="16">
         <v>1</v>
       </c>
       <c r="U22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="16">
         <v>1</v>
@@ -2984,24 +3018,27 @@
       <c r="AD22" s="16">
         <v>1</v>
       </c>
-      <c r="AE22" s="16"/>
+      <c r="AE22" s="16">
+        <v>1</v>
+      </c>
       <c r="AF22" s="16"/>
       <c r="AG22" s="16"/>
       <c r="AH22" s="16"/>
+      <c r="AI22" s="16"/>
     </row>
-    <row r="23" spans="1:34" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="16"/>
       <c r="E23" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="16"/>
@@ -3012,9 +3049,7 @@
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
       <c r="N23" s="16"/>
-      <c r="O23" s="16">
-        <v>0</v>
-      </c>
+      <c r="O23" s="16"/>
       <c r="P23" s="16">
         <v>0</v>
       </c>
@@ -3028,13 +3063,13 @@
         <v>0</v>
       </c>
       <c r="T23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" s="16">
         <v>1</v>
@@ -3060,24 +3095,27 @@
       <c r="AD23" s="16">
         <v>1</v>
       </c>
-      <c r="AE23" s="16"/>
+      <c r="AE23" s="16">
+        <v>1</v>
+      </c>
       <c r="AF23" s="16"/>
       <c r="AG23" s="16"/>
       <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
     </row>
-    <row r="24" spans="1:34" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B24" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C24" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>120</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
@@ -3088,9 +3126,7 @@
       <c r="L24" s="16"/>
       <c r="M24" s="16"/>
       <c r="N24" s="16"/>
-      <c r="O24" s="16">
-        <v>0</v>
-      </c>
+      <c r="O24" s="16"/>
       <c r="P24" s="16">
         <v>0</v>
       </c>
@@ -3104,13 +3140,13 @@
         <v>0</v>
       </c>
       <c r="T24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="16">
         <v>1</v>
@@ -3136,24 +3172,27 @@
       <c r="AD24" s="16">
         <v>1</v>
       </c>
-      <c r="AE24" s="16"/>
+      <c r="AE24" s="16">
+        <v>1</v>
+      </c>
       <c r="AF24" s="16"/>
       <c r="AG24" s="16"/>
       <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
     </row>
-    <row r="25" spans="1:34" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="16" t="s">
         <v>103</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>104</v>
       </c>
       <c r="D25" s="16"/>
       <c r="E25" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F25" s="16"/>
       <c r="G25" s="16"/>
@@ -3164,9 +3203,7 @@
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
       <c r="N25" s="16"/>
-      <c r="O25" s="16">
-        <v>0</v>
-      </c>
+      <c r="O25" s="16"/>
       <c r="P25" s="16">
         <v>0</v>
       </c>
@@ -3186,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="V25" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="16">
         <v>1</v>
@@ -3212,24 +3249,27 @@
       <c r="AD25" s="16">
         <v>1</v>
       </c>
-      <c r="AE25" s="16"/>
+      <c r="AE25" s="16">
+        <v>1</v>
+      </c>
       <c r="AF25" s="16"/>
       <c r="AG25" s="16"/>
       <c r="AH25" s="16"/>
+      <c r="AI25" s="16"/>
     </row>
-    <row r="26" spans="1:34" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>123</v>
-      </c>
       <c r="C26" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D26" s="19"/>
       <c r="E26" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -3240,9 +3280,7 @@
       <c r="L26" s="19"/>
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
-      <c r="O26" s="19">
-        <v>0</v>
-      </c>
+      <c r="O26" s="19"/>
       <c r="P26" s="19">
         <v>0</v>
       </c>
@@ -3253,13 +3291,13 @@
         <v>0</v>
       </c>
       <c r="S26" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26" s="19">
         <v>1</v>
       </c>
       <c r="U26" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="19">
         <v>0</v>
@@ -3288,222 +3326,225 @@
       <c r="AD26" s="19">
         <v>0</v>
       </c>
-      <c r="AE26" s="19"/>
+      <c r="AE26" s="19">
+        <v>0</v>
+      </c>
       <c r="AF26" s="19"/>
       <c r="AG26" s="19"/>
       <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
     </row>
-    <row r="27" spans="1:34" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="E27" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C27" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="20" t="s">
+      <c r="G27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P27" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="20">
+        <v>0</v>
+      </c>
+      <c r="R27" s="20">
+        <v>0</v>
+      </c>
+      <c r="S27" s="20">
+        <v>0</v>
+      </c>
+      <c r="T27" s="20">
+        <v>1</v>
+      </c>
+      <c r="U27" s="20">
+        <v>1</v>
+      </c>
+      <c r="V27" s="20">
+        <v>0</v>
+      </c>
+      <c r="W27" s="20">
+        <v>0</v>
+      </c>
+      <c r="X27" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="G27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="O27" s="20">
-        <v>0</v>
-      </c>
-      <c r="P27" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="20">
-        <v>0</v>
-      </c>
-      <c r="R27" s="20">
-        <v>0</v>
-      </c>
-      <c r="S27" s="20">
-        <v>1</v>
-      </c>
-      <c r="T27" s="20">
-        <v>1</v>
-      </c>
-      <c r="U27" s="20">
-        <v>0</v>
-      </c>
-      <c r="V27" s="20">
-        <v>0</v>
-      </c>
-      <c r="W27" s="20">
-        <v>0</v>
-      </c>
-      <c r="X27" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="20">
+      <c r="B28" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P28" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="20">
+        <v>0</v>
+      </c>
+      <c r="R28" s="20">
+        <v>0</v>
+      </c>
+      <c r="S28" s="20">
+        <v>0</v>
+      </c>
+      <c r="T28" s="20">
+        <v>1</v>
+      </c>
+      <c r="U28" s="20">
+        <v>1</v>
+      </c>
+      <c r="V28" s="20">
+        <v>0</v>
+      </c>
+      <c r="W28" s="20">
+        <v>0</v>
+      </c>
+      <c r="X28" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="20" t="s">
+    <row r="29" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B28" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O28" s="20">
-        <v>0</v>
-      </c>
-      <c r="P28" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="20">
-        <v>0</v>
-      </c>
-      <c r="R28" s="20">
-        <v>0</v>
-      </c>
-      <c r="S28" s="20">
-        <v>1</v>
-      </c>
-      <c r="T28" s="20">
-        <v>1</v>
-      </c>
-      <c r="U28" s="20">
-        <v>0</v>
-      </c>
-      <c r="V28" s="20">
-        <v>0</v>
-      </c>
-      <c r="W28" s="20">
-        <v>0</v>
-      </c>
-      <c r="X28" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="20">
+      <c r="B29" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="20">
+        <v>0</v>
+      </c>
+      <c r="R29" s="20">
+        <v>0</v>
+      </c>
+      <c r="S29" s="20">
+        <v>0</v>
+      </c>
+      <c r="T29" s="20">
+        <v>1</v>
+      </c>
+      <c r="U29" s="20">
+        <v>1</v>
+      </c>
+      <c r="V29" s="20">
+        <v>0</v>
+      </c>
+      <c r="W29" s="20">
+        <v>0</v>
+      </c>
+      <c r="X29" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="O29" s="20">
-        <v>0</v>
-      </c>
-      <c r="P29" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="20">
-        <v>0</v>
-      </c>
-      <c r="R29" s="20">
-        <v>0</v>
-      </c>
-      <c r="S29" s="20">
-        <v>1</v>
-      </c>
-      <c r="T29" s="20">
-        <v>1</v>
-      </c>
-      <c r="U29" s="20">
-        <v>0</v>
-      </c>
-      <c r="V29" s="20">
-        <v>0</v>
-      </c>
-      <c r="W29" s="20">
-        <v>0</v>
-      </c>
-      <c r="X29" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:34" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D30" s="19"/>
       <c r="E30" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -3514,9 +3555,7 @@
       <c r="L30" s="19"/>
       <c r="M30" s="19"/>
       <c r="N30" s="19"/>
-      <c r="O30" s="19">
-        <v>0</v>
-      </c>
+      <c r="O30" s="19"/>
       <c r="P30" s="19">
         <v>0</v>
       </c>
@@ -3527,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="S30" s="19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30" s="19">
         <v>0</v>
@@ -3562,172 +3601,175 @@
       <c r="AD30" s="19">
         <v>0</v>
       </c>
-      <c r="AE30" s="19"/>
+      <c r="AE30" s="19">
+        <v>0</v>
+      </c>
       <c r="AF30" s="19"/>
       <c r="AG30" s="19"/>
       <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
     </row>
-    <row r="31" spans="1:34" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P31" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="20">
+        <v>0</v>
+      </c>
+      <c r="R31" s="20">
+        <v>0</v>
+      </c>
+      <c r="S31" s="20">
+        <v>0</v>
+      </c>
+      <c r="T31" s="20">
+        <v>1</v>
+      </c>
+      <c r="U31" s="20">
+        <v>0</v>
+      </c>
+      <c r="V31" s="20">
+        <v>0</v>
+      </c>
+      <c r="W31" s="20">
+        <v>0</v>
+      </c>
+      <c r="X31" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="B31" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="B32" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="F31" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="G31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H31" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="O31" s="20">
-        <v>0</v>
-      </c>
-      <c r="P31" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="20">
-        <v>0</v>
-      </c>
-      <c r="R31" s="20">
-        <v>0</v>
-      </c>
-      <c r="S31" s="20">
-        <v>1</v>
-      </c>
-      <c r="T31" s="20">
-        <v>0</v>
-      </c>
-      <c r="U31" s="20">
-        <v>0</v>
-      </c>
-      <c r="V31" s="20">
-        <v>0</v>
-      </c>
-      <c r="W31" s="20">
-        <v>0</v>
-      </c>
-      <c r="X31" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="20">
+      <c r="G32" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="P32" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="20">
+        <v>0</v>
+      </c>
+      <c r="R32" s="20">
+        <v>0</v>
+      </c>
+      <c r="S32" s="20">
+        <v>0</v>
+      </c>
+      <c r="T32" s="20">
+        <v>1</v>
+      </c>
+      <c r="U32" s="20">
+        <v>0</v>
+      </c>
+      <c r="V32" s="20">
+        <v>0</v>
+      </c>
+      <c r="W32" s="20">
+        <v>0</v>
+      </c>
+      <c r="X32" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" s="20" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20" t="s">
+    <row r="33" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="19" t="s">
+      <c r="B33" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="F32" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G32" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="H32" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="O32" s="20">
-        <v>0</v>
-      </c>
-      <c r="P32" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="20">
-        <v>0</v>
-      </c>
-      <c r="R32" s="20">
-        <v>0</v>
-      </c>
-      <c r="S32" s="20">
-        <v>1</v>
-      </c>
-      <c r="T32" s="20">
-        <v>0</v>
-      </c>
-      <c r="U32" s="20">
-        <v>0</v>
-      </c>
-      <c r="V32" s="20">
-        <v>0</v>
-      </c>
-      <c r="W32" s="20">
-        <v>0</v>
-      </c>
-      <c r="X32" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="18" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>88</v>
-      </c>
       <c r="C33" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F33" s="18"/>
       <c r="G33" s="18"/>
@@ -3738,9 +3780,7 @@
       <c r="L33" s="18"/>
       <c r="M33" s="18"/>
       <c r="N33" s="18"/>
-      <c r="O33" s="18">
-        <v>0</v>
-      </c>
+      <c r="O33" s="18"/>
       <c r="P33" s="18">
         <v>0</v>
       </c>
@@ -3751,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="S33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U33" s="18">
         <v>0</v>
@@ -3763,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33" s="18">
         <v>1</v>
@@ -3772,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="Z33" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33" s="18">
         <v>0</v>
@@ -3786,24 +3826,27 @@
       <c r="AD33" s="18">
         <v>0</v>
       </c>
-      <c r="AE33" s="18"/>
+      <c r="AE33" s="18">
+        <v>0</v>
+      </c>
       <c r="AF33" s="18"/>
       <c r="AG33" s="18"/>
       <c r="AH33" s="18"/>
+      <c r="AI33" s="18"/>
     </row>
-    <row r="34" spans="1:35" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:36" s="7" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B34" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>88</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>89</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
@@ -3814,9 +3857,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="18"/>
       <c r="N34" s="18"/>
-      <c r="O34" s="18">
-        <v>0</v>
-      </c>
+      <c r="O34" s="18"/>
       <c r="P34" s="18">
         <v>0</v>
       </c>
@@ -3827,10 +3868,10 @@
         <v>0</v>
       </c>
       <c r="S34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34" s="18">
         <v>0</v>
@@ -3839,7 +3880,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34" s="18">
         <v>1</v>
@@ -3848,7 +3889,7 @@
         <v>1</v>
       </c>
       <c r="Z34" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA34" s="18">
         <v>0</v>
@@ -3862,24 +3903,27 @@
       <c r="AD34" s="18">
         <v>0</v>
       </c>
-      <c r="AE34" s="18"/>
+      <c r="AE34" s="18">
+        <v>0</v>
+      </c>
       <c r="AF34" s="18"/>
       <c r="AG34" s="18"/>
       <c r="AH34" s="18"/>
+      <c r="AI34" s="18"/>
     </row>
-    <row r="35" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A35" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D35" s="17"/>
       <c r="E35" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -3890,9 +3934,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
       <c r="N35" s="17"/>
-      <c r="O35" s="17">
-        <v>0</v>
-      </c>
+      <c r="O35" s="17"/>
       <c r="P35" s="17">
         <v>0</v>
       </c>
@@ -3938,25 +3980,28 @@
       <c r="AD35" s="17">
         <v>0</v>
       </c>
-      <c r="AE35" s="17"/>
+      <c r="AE35" s="17">
+        <v>0</v>
+      </c>
       <c r="AF35" s="17"/>
       <c r="AG35" s="17"/>
       <c r="AH35" s="17"/>
-      <c r="AI35" s="8"/>
+      <c r="AI35" s="17"/>
+      <c r="AJ35" s="8"/>
     </row>
-    <row r="36" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A36" s="17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D36" s="17"/>
       <c r="E36" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -3967,9 +4012,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
       <c r="N36" s="17"/>
-      <c r="O36" s="17">
-        <v>0</v>
-      </c>
+      <c r="O36" s="17"/>
       <c r="P36" s="17">
         <v>0</v>
       </c>
@@ -3980,10 +4023,10 @@
         <v>0</v>
       </c>
       <c r="S36" s="17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T36" s="17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U36" s="17">
         <v>0</v>
@@ -4015,25 +4058,28 @@
       <c r="AD36" s="17">
         <v>0</v>
       </c>
-      <c r="AE36" s="17"/>
+      <c r="AE36" s="17">
+        <v>0</v>
+      </c>
       <c r="AF36" s="17"/>
       <c r="AG36" s="17"/>
       <c r="AH36" s="17"/>
-      <c r="AI36" s="8"/>
+      <c r="AI36" s="17"/>
+      <c r="AJ36" s="8"/>
     </row>
-    <row r="37" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A37" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D37" s="17"/>
       <c r="E37" s="16" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -4044,9 +4090,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
       <c r="N37" s="17"/>
-      <c r="O37" s="17">
-        <v>0</v>
-      </c>
+      <c r="O37" s="17"/>
       <c r="P37" s="17">
         <v>0</v>
       </c>
@@ -4092,25 +4136,28 @@
       <c r="AD37" s="17">
         <v>0</v>
       </c>
-      <c r="AE37" s="17"/>
+      <c r="AE37" s="17">
+        <v>0</v>
+      </c>
       <c r="AF37" s="17"/>
       <c r="AG37" s="17"/>
       <c r="AH37" s="17"/>
-      <c r="AI37" s="8"/>
+      <c r="AI37" s="17"/>
+      <c r="AJ37" s="8"/>
     </row>
-    <row r="38" spans="1:35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:36" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="17" t="s">
         <v>132</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>133</v>
       </c>
       <c r="D38" s="17"/>
       <c r="E38" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -4121,9 +4168,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
       <c r="N38" s="17"/>
-      <c r="O38" s="17">
-        <v>0</v>
-      </c>
+      <c r="O38" s="17"/>
       <c r="P38" s="17">
         <v>0</v>
       </c>
@@ -4169,11 +4214,14 @@
       <c r="AD38" s="17">
         <v>0</v>
       </c>
-      <c r="AE38" s="17"/>
+      <c r="AE38" s="17">
+        <v>0</v>
+      </c>
       <c r="AF38" s="17"/>
       <c r="AG38" s="17"/>
       <c r="AH38" s="17"/>
-      <c r="AI38" s="8"/>
+      <c r="AI38" s="17"/>
+      <c r="AJ38" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
